--- a/Racecard_20250209_10.xlsx
+++ b/Racecard_20250209_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="270">
   <si>
     <t>日期</t>
   </si>
@@ -124,67 +124,145 @@
     <t>上次負磅</t>
   </si>
   <si>
-    <t>負磅 +/-</t>
+    <t>上次負磅 +/-</t>
   </si>
   <si>
     <t>上次檔位</t>
   </si>
   <si>
-    <t>檔位 +/-</t>
-  </si>
-  <si>
-    <t>賽事時間1</t>
-  </si>
-  <si>
-    <t>賽事時間2</t>
-  </si>
-  <si>
-    <t>賽事時間3</t>
-  </si>
-  <si>
-    <t>賽事時間4</t>
-  </si>
-  <si>
-    <t>賽事時間5</t>
-  </si>
-  <si>
-    <t>賽事時間6</t>
-  </si>
-  <si>
-    <t>完成時間</t>
-  </si>
-  <si>
-    <t>第 1 段</t>
-  </si>
-  <si>
-    <t>第 2 段</t>
-  </si>
-  <si>
-    <t>第 3 段</t>
-  </si>
-  <si>
-    <t>第 4 段</t>
-  </si>
-  <si>
-    <t>第 5 段</t>
-  </si>
-  <si>
-    <t>第 6 段</t>
-  </si>
-  <si>
-    <t>最後 800</t>
+    <t>上次檔位 +/-</t>
+  </si>
+  <si>
+    <t>上次賽事時間1</t>
+  </si>
+  <si>
+    <t>上次賽事時間2</t>
+  </si>
+  <si>
+    <t>上次賽事時間3</t>
+  </si>
+  <si>
+    <t>上次賽事時間4</t>
+  </si>
+  <si>
+    <t>上次賽事時間5</t>
+  </si>
+  <si>
+    <t>上次賽事時間6</t>
+  </si>
+  <si>
+    <t>上次完成時間</t>
+  </si>
+  <si>
+    <t>上次第 1 段</t>
+  </si>
+  <si>
+    <t>上次第 2 段</t>
+  </si>
+  <si>
+    <t>上次第 3 段</t>
+  </si>
+  <si>
+    <t>上次第 4 段</t>
+  </si>
+  <si>
+    <t>上次第 5 段</t>
+  </si>
+  <si>
+    <t>上次第 6 段</t>
+  </si>
+  <si>
+    <t>上次最後 800</t>
+  </si>
+  <si>
+    <t>上次調整基數</t>
+  </si>
+  <si>
+    <t>上次調整後最後 800</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間</t>
+  </si>
+  <si>
+    <t>前次總場次</t>
+  </si>
+  <si>
+    <t>前次名次</t>
+  </si>
+  <si>
+    <t>前次負磅</t>
+  </si>
+  <si>
+    <t>前次負磅 +/-</t>
+  </si>
+  <si>
+    <t>前次檔位</t>
+  </si>
+  <si>
+    <t>前次檔位 +/-</t>
+  </si>
+  <si>
+    <t>前次賽事時間1</t>
+  </si>
+  <si>
+    <t>前次賽事時間2</t>
+  </si>
+  <si>
+    <t>前次賽事時間3</t>
+  </si>
+  <si>
+    <t>前次賽事時間4</t>
+  </si>
+  <si>
+    <t>前次賽事時間5</t>
+  </si>
+  <si>
+    <t>前次賽事時間6</t>
+  </si>
+  <si>
+    <t>前次完成時間</t>
+  </si>
+  <si>
+    <t>前次第 1 段</t>
+  </si>
+  <si>
+    <t>前次第 2 段</t>
+  </si>
+  <si>
+    <t>前次第 3 段</t>
+  </si>
+  <si>
+    <t>前次第 4 段</t>
+  </si>
+  <si>
+    <t>前次第 5 段</t>
+  </si>
+  <si>
+    <t>前次第 6 段</t>
+  </si>
+  <si>
+    <t>前次最後 800</t>
+  </si>
+  <si>
+    <t>前次調整基數</t>
+  </si>
+  <si>
+    <t>前次調整後最後 800</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間</t>
   </si>
   <si>
     <t>馬名2</t>
   </si>
   <si>
-    <t>調整基數</t>
-  </si>
-  <si>
-    <t>調整後最後 800</t>
-  </si>
-  <si>
-    <t>調整後完成時間</t>
+    <t>上次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>2次調整後完成時間</t>
   </si>
   <si>
     <t>ST</t>
@@ -640,6 +718,9 @@
     <t>PPG</t>
   </si>
   <si>
+    <t>1:08.81</t>
+  </si>
+  <si>
     <t>1:09.56</t>
   </si>
   <si>
@@ -664,6 +745,9 @@
     <t>1:09.40</t>
   </si>
   <si>
+    <t>1:09.50</t>
+  </si>
+  <si>
     <t>1:09.67</t>
   </si>
   <si>
@@ -682,6 +766,9 @@
     <t>1:09.86</t>
   </si>
   <si>
+    <t>1:9.39</t>
+  </si>
+  <si>
     <t>1:9.66</t>
   </si>
   <si>
@@ -707,6 +794,60 @@
   </si>
   <si>
     <t>1:9.59</t>
+  </si>
+  <si>
+    <t>1:09.33</t>
+  </si>
+  <si>
+    <t>1:09.11</t>
+  </si>
+  <si>
+    <t>1:09.36</t>
+  </si>
+  <si>
+    <t>1:09.29</t>
+  </si>
+  <si>
+    <t>1:09.71</t>
+  </si>
+  <si>
+    <t>1:09.54</t>
+  </si>
+  <si>
+    <t>1:09.38</t>
+  </si>
+  <si>
+    <t>1:9.63</t>
+  </si>
+  <si>
+    <t>1:9.48</t>
+  </si>
+  <si>
+    <t>1:9.54</t>
+  </si>
+  <si>
+    <t>1:9.46</t>
+  </si>
+  <si>
+    <t>1:9.57</t>
+  </si>
+  <si>
+    <t>1:9.64</t>
+  </si>
+  <si>
+    <t>1:9.23</t>
+  </si>
+  <si>
+    <t>1:9.6</t>
+  </si>
+  <si>
+    <t>1:9.94</t>
+  </si>
+  <si>
+    <t>1:9.42</t>
+  </si>
+  <si>
+    <t>1:9.58</t>
   </si>
 </sst>
 </file>
@@ -1068,13 +1209,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE13"/>
+  <dimension ref="A1:CE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,25 +1387,103 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:83">
       <c r="A2" s="2">
         <v>45697</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G2">
         <v>1200</v>
@@ -1273,87 +1492,87 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="L2">
         <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="O2">
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="R2">
         <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="W2">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AA2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="AC2" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="AD2" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="AE2" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AF2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="AG2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>73</v>
+        <v>224</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:83">
       <c r="A3" s="2">
         <v>45697</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G3">
         <v>1200</v>
@@ -1362,90 +1581,171 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="L3">
         <v>128</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="R3">
         <v>70</v>
       </c>
       <c r="S3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="U3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V3" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="W3">
         <v>7</v>
       </c>
       <c r="Y3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z3" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AA3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AB3" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AC3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="AE3" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="AF3" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="AG3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>74</v>
+        <v>224</v>
+      </c>
+      <c r="AH3">
+        <v>2023645</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>113</v>
+      </c>
+      <c r="AK3">
+        <v>15</v>
+      </c>
+      <c r="AL3">
+        <v>9</v>
+      </c>
+      <c r="AM3">
+        <v>-8</v>
+      </c>
+      <c r="AN3">
+        <v>23.96</v>
+      </c>
+      <c r="AO3">
+        <v>46.5</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB3">
+        <v>-0.111</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BE3">
+        <v>2023645</v>
+      </c>
+      <c r="BF3">
+        <v>5</v>
+      </c>
+      <c r="BG3">
+        <v>113</v>
+      </c>
+      <c r="BH3">
+        <v>15</v>
+      </c>
+      <c r="BI3">
+        <v>9</v>
+      </c>
+      <c r="BJ3">
+        <v>-8</v>
+      </c>
+      <c r="BK3">
+        <v>23.96</v>
+      </c>
+      <c r="BL3">
+        <v>46.5</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BY3">
+        <v>-0.111</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>242</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>242</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>242</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:83">
       <c r="A4" s="2">
         <v>45697</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>1200</v>
@@ -1454,67 +1754,67 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="L4">
         <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="O4">
         <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="R4">
         <v>67</v>
       </c>
       <c r="S4" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="U4" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V4" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z4" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AA4" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB4" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AC4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="AE4" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="AF4" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AG4" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AH4">
         <v>2024366</v>
@@ -1541,10 +1841,10 @@
         <v>47.15</v>
       </c>
       <c r="AP4" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AT4" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AU4">
         <v>25.23</v>
@@ -1558,37 +1858,97 @@
       <c r="BA4">
         <v>44.44</v>
       </c>
-      <c r="BB4" t="s">
-        <v>75</v>
+      <c r="BB4">
+        <v>-0.012</v>
       </c>
       <c r="BC4">
-        <v>-0.012</v>
-      </c>
-      <c r="BD4">
         <v>44.428</v>
       </c>
-      <c r="BE4" t="s">
-        <v>214</v>
+      <c r="BD4" t="s">
+        <v>243</v>
+      </c>
+      <c r="BE4">
+        <v>2024315</v>
+      </c>
+      <c r="BF4">
+        <v>4</v>
+      </c>
+      <c r="BG4">
+        <v>125</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>10</v>
+      </c>
+      <c r="BJ4">
+        <v>-1</v>
+      </c>
+      <c r="BK4">
+        <v>23.92</v>
+      </c>
+      <c r="BL4">
+        <v>46.16</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>232</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR4">
+        <v>25.08</v>
+      </c>
+      <c r="BS4">
+        <v>21.92</v>
+      </c>
+      <c r="BT4">
+        <v>22.67</v>
+      </c>
+      <c r="BX4">
+        <v>44.59</v>
+      </c>
+      <c r="BY4">
+        <v>-0.042</v>
+      </c>
+      <c r="BZ4">
+        <v>44.548</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>243</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>259</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:83">
       <c r="A5" s="2">
         <v>45697</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>1200</v>
@@ -1597,67 +1957,67 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="L5">
         <v>124</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="R5">
         <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="U5" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V5" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z5" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AA5" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AC5" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AD5" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="AE5" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="AF5" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="AG5" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AH5">
         <v>2024321</v>
@@ -1684,10 +2044,10 @@
         <v>46.15</v>
       </c>
       <c r="AP5" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="AT5" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="AU5">
         <v>24.59</v>
@@ -1701,37 +2061,97 @@
       <c r="BA5">
         <v>44.68</v>
       </c>
-      <c r="BB5" t="s">
-        <v>76</v>
+      <c r="BB5">
+        <v>-0.276</v>
       </c>
       <c r="BC5">
-        <v>-0.276</v>
-      </c>
-      <c r="BD5">
         <v>44.404</v>
       </c>
-      <c r="BE5" t="s">
-        <v>215</v>
+      <c r="BD5" t="s">
+        <v>244</v>
+      </c>
+      <c r="BE5">
+        <v>2024204</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>128</v>
+      </c>
+      <c r="BH5">
+        <v>-4</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>5</v>
+      </c>
+      <c r="BK5">
+        <v>23.51</v>
+      </c>
+      <c r="BL5">
+        <v>45.93</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BR5">
+        <v>24.07</v>
+      </c>
+      <c r="BS5">
+        <v>22.38</v>
+      </c>
+      <c r="BT5">
+        <v>22.88</v>
+      </c>
+      <c r="BX5">
+        <v>45.26</v>
+      </c>
+      <c r="BY5">
+        <v>0.15</v>
+      </c>
+      <c r="BZ5">
+        <v>45.41</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>260</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>244</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>260</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:83">
       <c r="A6" s="2">
         <v>45697</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G6">
         <v>1200</v>
@@ -1740,64 +2160,64 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="L6">
         <v>123</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="O6">
         <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="R6">
         <v>65</v>
       </c>
       <c r="S6" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V6" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="AA6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB6" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="AE6" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="AF6" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AG6" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AH6">
         <v>2024385</v>
@@ -1824,10 +2244,10 @@
         <v>46.64</v>
       </c>
       <c r="AP6" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="AT6" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="AU6">
         <v>25.38</v>
@@ -1841,37 +2261,97 @@
       <c r="BA6">
         <v>44.57</v>
       </c>
-      <c r="BB6" t="s">
-        <v>77</v>
+      <c r="BB6">
+        <v>-0.282</v>
       </c>
       <c r="BC6">
-        <v>-0.282</v>
-      </c>
-      <c r="BD6">
         <v>44.288</v>
       </c>
-      <c r="BE6" t="s">
-        <v>216</v>
+      <c r="BD6" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE6">
+        <v>2024344</v>
+      </c>
+      <c r="BF6">
+        <v>9</v>
+      </c>
+      <c r="BG6">
+        <v>123</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>11</v>
+      </c>
+      <c r="BJ6">
+        <v>-4</v>
+      </c>
+      <c r="BK6">
+        <v>23.97</v>
+      </c>
+      <c r="BL6">
+        <v>46.19</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR6">
+        <v>24.41</v>
+      </c>
+      <c r="BS6">
+        <v>22.14</v>
+      </c>
+      <c r="BT6">
+        <v>23.16</v>
+      </c>
+      <c r="BX6">
+        <v>45.3</v>
+      </c>
+      <c r="BY6">
+        <v>-0.168</v>
+      </c>
+      <c r="BZ6">
+        <v>45.132</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>245</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>261</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:83">
       <c r="A7" s="2">
         <v>45697</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G7">
         <v>1200</v>
@@ -1880,67 +2360,67 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="L7">
         <v>123</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="O7">
         <v>8</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="R7">
         <v>65</v>
       </c>
       <c r="S7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="U7" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AA7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="AD7" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="AE7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="AF7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="AG7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AH7">
         <v>2024261</v>
@@ -1967,10 +2447,10 @@
         <v>48.01</v>
       </c>
       <c r="AP7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="AT7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="AU7">
         <v>24.42</v>
@@ -1984,37 +2464,97 @@
       <c r="BA7">
         <v>45.83</v>
       </c>
-      <c r="BB7" t="s">
-        <v>78</v>
+      <c r="BB7">
+        <v>-0.18</v>
       </c>
       <c r="BC7">
+        <v>45.65</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE7">
+        <v>2024261</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>135</v>
+      </c>
+      <c r="BH7">
+        <v>-12</v>
+      </c>
+      <c r="BI7">
+        <v>8</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>24.42</v>
+      </c>
+      <c r="BL7">
+        <v>48.01</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR7">
+        <v>24.42</v>
+      </c>
+      <c r="BS7">
+        <v>23.59</v>
+      </c>
+      <c r="BT7">
+        <v>22.24</v>
+      </c>
+      <c r="BX7">
+        <v>45.83</v>
+      </c>
+      <c r="BY7">
         <v>-0.18</v>
       </c>
-      <c r="BD7">
+      <c r="BZ7">
         <v>45.65</v>
       </c>
-      <c r="BE7" t="s">
-        <v>217</v>
+      <c r="CA7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:83">
       <c r="A8" s="2">
         <v>45697</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G8">
         <v>1200</v>
@@ -2023,67 +2563,67 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="L8">
         <v>122</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="O8">
         <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="R8">
         <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AA8" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="AD8" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AE8" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="AF8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="AG8" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AH8">
         <v>2024283</v>
@@ -2110,10 +2650,10 @@
         <v>45.46</v>
       </c>
       <c r="AP8" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="AT8" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="AU8">
         <v>24.07</v>
@@ -2127,37 +2667,97 @@
       <c r="BA8">
         <v>45.93</v>
       </c>
-      <c r="BB8" t="s">
-        <v>79</v>
+      <c r="BB8">
+        <v>0.225</v>
       </c>
       <c r="BC8">
-        <v>0.225</v>
-      </c>
-      <c r="BD8">
         <v>46.155</v>
       </c>
-      <c r="BE8" t="s">
-        <v>218</v>
+      <c r="BD8" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE8">
+        <v>2024154</v>
+      </c>
+      <c r="BF8">
+        <v>3</v>
+      </c>
+      <c r="BG8">
+        <v>124</v>
+      </c>
+      <c r="BH8">
+        <v>-2</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>10</v>
+      </c>
+      <c r="BK8">
+        <v>23.86</v>
+      </c>
+      <c r="BL8">
+        <v>46.24</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR8">
+        <v>24.14</v>
+      </c>
+      <c r="BS8">
+        <v>22.34</v>
+      </c>
+      <c r="BT8">
+        <v>22.79</v>
+      </c>
+      <c r="BX8">
+        <v>45.13</v>
+      </c>
+      <c r="BY8">
+        <v>0.39</v>
+      </c>
+      <c r="BZ8">
+        <v>45.52</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>105</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>243</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:83">
       <c r="A9" s="2">
         <v>45697</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>1200</v>
@@ -2166,67 +2766,67 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L9">
         <v>122</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="R9">
         <v>64</v>
       </c>
       <c r="S9" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="U9" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V9" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="W9">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z9" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AA9" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="AB9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AC9" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AE9" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="AF9" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="AG9" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AH9">
         <v>2024366</v>
@@ -2253,10 +2853,10 @@
         <v>47.15</v>
       </c>
       <c r="AP9" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AT9" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AU9">
         <v>25.35</v>
@@ -2270,37 +2870,97 @@
       <c r="BA9">
         <v>44.66</v>
       </c>
-      <c r="BB9" t="s">
-        <v>80</v>
+      <c r="BB9">
+        <v>0.099</v>
       </c>
       <c r="BC9">
+        <v>44.75899999999999</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>248</v>
+      </c>
+      <c r="BE9">
+        <v>2024366</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>121</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>8</v>
+      </c>
+      <c r="BJ9">
+        <v>2</v>
+      </c>
+      <c r="BK9">
+        <v>24.43</v>
+      </c>
+      <c r="BL9">
+        <v>47.15</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>239</v>
+      </c>
+      <c r="BR9">
+        <v>25.35</v>
+      </c>
+      <c r="BS9">
+        <v>22.56</v>
+      </c>
+      <c r="BT9">
+        <v>22.1</v>
+      </c>
+      <c r="BX9">
+        <v>44.66</v>
+      </c>
+      <c r="BY9">
         <v>0.099</v>
       </c>
-      <c r="BD9">
+      <c r="BZ9">
         <v>44.75899999999999</v>
       </c>
-      <c r="BE9" t="s">
-        <v>219</v>
+      <c r="CA9" t="s">
+        <v>248</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>248</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:83">
       <c r="A10" s="2">
         <v>45697</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G10">
         <v>1200</v>
@@ -2309,84 +2969,84 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="L10">
         <v>122</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="O10">
         <v>12</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="R10">
         <v>64</v>
       </c>
       <c r="S10" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="U10" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="W10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z10" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="AA10" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB10" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AD10" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AE10" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="AF10" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="AG10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>81</v>
+        <v>224</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:83">
       <c r="A11" s="2">
         <v>45697</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G11">
         <v>1200</v>
@@ -2395,64 +3055,64 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="L11">
         <v>121</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="R11">
         <v>63</v>
       </c>
       <c r="S11" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="U11" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V11" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="W11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z11" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB11" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AD11" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AE11" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="AF11" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="AG11" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AH11">
         <v>2024315</v>
@@ -2479,10 +3139,10 @@
         <v>46.16</v>
       </c>
       <c r="AP11" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="AT11" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="AU11">
         <v>25.2</v>
@@ -2496,37 +3156,97 @@
       <c r="BA11">
         <v>45.03</v>
       </c>
-      <c r="BB11" t="s">
-        <v>82</v>
+      <c r="BB11">
+        <v>-0.213</v>
       </c>
       <c r="BC11">
+        <v>44.817</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>249</v>
+      </c>
+      <c r="BE11">
+        <v>2024315</v>
+      </c>
+      <c r="BF11">
+        <v>9</v>
+      </c>
+      <c r="BG11">
+        <v>124</v>
+      </c>
+      <c r="BH11">
+        <v>-3</v>
+      </c>
+      <c r="BI11">
+        <v>6</v>
+      </c>
+      <c r="BJ11">
+        <v>-4</v>
+      </c>
+      <c r="BK11">
+        <v>23.92</v>
+      </c>
+      <c r="BL11">
+        <v>46.16</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR11">
+        <v>25.2</v>
+      </c>
+      <c r="BS11">
+        <v>22.36</v>
+      </c>
+      <c r="BT11">
+        <v>22.67</v>
+      </c>
+      <c r="BX11">
+        <v>45.03</v>
+      </c>
+      <c r="BY11">
         <v>-0.213</v>
       </c>
-      <c r="BD11">
+      <c r="BZ11">
         <v>44.817</v>
       </c>
-      <c r="BE11" t="s">
-        <v>220</v>
+      <c r="CA11" t="s">
+        <v>249</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>249</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>249</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:83">
       <c r="A12" s="2">
         <v>45697</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>1200</v>
@@ -2535,70 +3255,70 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L12">
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="R12">
         <v>62</v>
       </c>
       <c r="S12" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V12" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="W12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="AA12" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AB12" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AC12" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="AD12" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AE12" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="AF12" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="AG12" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AH12">
         <v>2024356</v>
@@ -2625,10 +3345,10 @@
         <v>46.66</v>
       </c>
       <c r="AP12" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="AT12" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="AU12">
         <v>24.12</v>
@@ -2642,37 +3362,97 @@
       <c r="BA12">
         <v>45.3</v>
       </c>
-      <c r="BB12" t="s">
-        <v>83</v>
+      <c r="BB12">
+        <v>-0.05399999999999999</v>
       </c>
       <c r="BC12">
-        <v>-0.05399999999999999</v>
-      </c>
-      <c r="BD12">
         <v>45.246</v>
       </c>
-      <c r="BE12" t="s">
-        <v>221</v>
+      <c r="BD12" t="s">
+        <v>250</v>
+      </c>
+      <c r="BE12">
+        <v>2024281</v>
+      </c>
+      <c r="BF12">
+        <v>3</v>
+      </c>
+      <c r="BG12">
+        <v>131</v>
+      </c>
+      <c r="BH12">
+        <v>-11</v>
+      </c>
+      <c r="BI12">
+        <v>2</v>
+      </c>
+      <c r="BJ12">
+        <v>2</v>
+      </c>
+      <c r="BK12">
+        <v>23.65</v>
+      </c>
+      <c r="BL12">
+        <v>46.03</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>257</v>
+      </c>
+      <c r="BR12">
+        <v>24.09</v>
+      </c>
+      <c r="BS12">
+        <v>22.5</v>
+      </c>
+      <c r="BT12">
+        <v>22.95</v>
+      </c>
+      <c r="BX12">
+        <v>45.45</v>
+      </c>
+      <c r="BY12">
+        <v>-0.08099999999999997</v>
+      </c>
+      <c r="BZ12">
+        <v>45.369</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>250</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>262</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:83">
       <c r="A13" s="2">
         <v>45697</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G13">
         <v>1200</v>
@@ -2681,67 +3461,67 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L13">
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="R13">
         <v>62</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="U13" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="V13" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="W13">
         <v>5</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AB13" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AC13" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AD13" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="AE13" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="AF13" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="AG13" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AH13">
         <v>2024325</v>
@@ -2768,10 +3548,10 @@
         <v>46.78</v>
       </c>
       <c r="AP13" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="AT13" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="AU13">
         <v>24.61</v>
@@ -2785,17 +3565,77 @@
       <c r="BA13">
         <v>45.25</v>
       </c>
-      <c r="BB13" t="s">
-        <v>84</v>
+      <c r="BB13">
+        <v>-0.267</v>
       </c>
       <c r="BC13">
-        <v>-0.267</v>
-      </c>
-      <c r="BD13">
         <v>44.983</v>
       </c>
-      <c r="BE13" t="s">
-        <v>222</v>
+      <c r="BD13" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE13">
+        <v>2024284</v>
+      </c>
+      <c r="BF13">
+        <v>3</v>
+      </c>
+      <c r="BG13">
+        <v>116</v>
+      </c>
+      <c r="BH13">
+        <v>4</v>
+      </c>
+      <c r="BI13">
+        <v>2</v>
+      </c>
+      <c r="BJ13">
+        <v>3</v>
+      </c>
+      <c r="BK13">
+        <v>24.32</v>
+      </c>
+      <c r="BL13">
+        <v>47.13</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>255</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR13">
+        <v>24.72</v>
+      </c>
+      <c r="BS13">
+        <v>22.61</v>
+      </c>
+      <c r="BT13">
+        <v>22.05</v>
+      </c>
+      <c r="BX13">
+        <v>44.66</v>
+      </c>
+      <c r="BY13">
+        <v>0.186</v>
+      </c>
+      <c r="BZ13">
+        <v>44.846</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>251</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>263</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Racecard_20250209_10.xlsx
+++ b/Racecard_20250209_10.xlsx
@@ -1673,9 +1673,24 @@
       <c r="AT3" t="s">
         <v>235</v>
       </c>
+      <c r="AU3">
+        <v>25.04</v>
+      </c>
+      <c r="AV3">
+        <v>22.38</v>
+      </c>
+      <c r="AW3">
+        <v>22.08</v>
+      </c>
+      <c r="BA3">
+        <v>44.46</v>
+      </c>
       <c r="BB3">
         <v>-0.111</v>
       </c>
+      <c r="BC3">
+        <v>44.349</v>
+      </c>
       <c r="BD3" t="s">
         <v>242</v>
       </c>
@@ -1709,8 +1724,23 @@
       <c r="BQ3" t="s">
         <v>235</v>
       </c>
+      <c r="BR3">
+        <v>25.04</v>
+      </c>
+      <c r="BS3">
+        <v>22.38</v>
+      </c>
+      <c r="BT3">
+        <v>22.08</v>
+      </c>
+      <c r="BX3">
+        <v>44.46</v>
+      </c>
       <c r="BY3">
         <v>-0.111</v>
+      </c>
+      <c r="BZ3">
+        <v>44.349</v>
       </c>
       <c r="CA3" t="s">
         <v>242</v>
